--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_9.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.14494819</v>
+        <v>20373567.1449482</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4789054.529283858</v>
+        <v>4789054.529283857</v>
       </c>
     </row>
     <row r="11">
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12.35200489467393</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="G17" t="n">
         <v>27.59002526031614</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="R19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>84.50979422927689</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>192.6676677056849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>26.84259295149039</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>147.6655966646496</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,25 +2597,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>109.364731275353</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>192.8779791104384</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.68895450699577</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2889,7 +2889,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>71.68224181945043</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,28 +3071,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>72.61088677903452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,23 +3263,23 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="36">
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>80.47961400380896</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,64 +3512,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>106.4456941689889</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>176.0348020395431</v>
       </c>
       <c r="E41" t="n">
         <v>213.4242636173429</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>187.9840913941556</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>27.32974305220725</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>50.64057423094498</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3907,52 +3907,52 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="F17" t="n">
         <v>97.8833284203818</v>
@@ -5534,31 +5534,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="C18" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="D18" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="E18" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="F18" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="G18" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="H18" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="I18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J18" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L18" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M18" t="n">
-        <v>84.14957704396423</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N18" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O18" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P18" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
@@ -5619,25 +5619,25 @@
         <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>54.62267627294912</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T18" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U18" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V18" t="n">
-        <v>30.07591440498301</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="W18" t="n">
-        <v>30.07591440498301</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="X18" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F19" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H19" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J19" t="n">
         <v>2.207202020825291</v>
@@ -5695,28 +5695,28 @@
         <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T19" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U19" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
         <v>233.7108255783361</v>
@@ -5786,10 +5786,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
         <v>477.1596022224361</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.6502787026334</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6502787026334</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="D21" t="n">
-        <v>132.6502787026334</v>
+        <v>195.6983334202631</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>195.6983334202631</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>195.6983334202631</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>195.6983334202631</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>132.6502787026334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>132.6502787026334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.6502787026334</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="22">
@@ -5941,13 +5941,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>433.7223438482202</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C24" t="n">
-        <v>259.2693145670932</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D24" t="n">
-        <v>110.334904905842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E24" t="n">
-        <v>110.334904905842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="F24" t="n">
-        <v>110.334904905842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>159.7640089566641</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>46.39487336424342</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>641.4826426131742</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>641.4826426131742</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>641.4826426131742</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>641.4826426131742</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X24" t="n">
-        <v>641.4826426131742</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y24" t="n">
-        <v>433.7223438482202</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.0119685275972</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>769.2309139849408</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>534.0788057531981</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>534.0788057531981</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>326.2273055476653</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y27" t="n">
-        <v>326.2273055476653</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,19 +6482,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
         <v>749.627473042513</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>508.9694238887622</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C30" t="n">
-        <v>508.9694238887622</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D30" t="n">
-        <v>508.9694238887622</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>205.8107162235509</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>92.44158063113018</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>588.4532163200711</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>588.4532163200711</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>588.4532163200711</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="31">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>587.3567013424552</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>587.3567013424552</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D33" t="n">
-        <v>438.4222916812039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6789,40 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>660.701031422288</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>660.701031422288</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>587.3567013424552</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6977,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7135,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.7257600495809</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
         <v>178.8501590306595</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>353.7257600495809</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>353.7257600495809</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>353.7257600495809</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>353.7257600495809</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>448.2340696092722</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="C41" t="n">
-        <v>448.2340696092722</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="D41" t="n">
-        <v>448.2340696092722</v>
+        <v>460.3040588563555</v>
       </c>
       <c r="E41" t="n">
-        <v>232.6540053493298</v>
+        <v>244.7239945964131</v>
       </c>
       <c r="F41" t="n">
-        <v>17.07394108938743</v>
+        <v>29.14393033647078</v>
       </c>
       <c r="G41" t="n">
-        <v>17.07394108938743</v>
+        <v>29.14393033647078</v>
       </c>
       <c r="H41" t="n">
-        <v>17.07394108938743</v>
+        <v>29.14393033647078</v>
       </c>
       <c r="I41" t="n">
-        <v>17.07394108938743</v>
+        <v>29.14393033647078</v>
       </c>
       <c r="J41" t="n">
         <v>17.07394108938743</v>
@@ -7445,16 +7445,16 @@
         <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Y41" t="n">
-        <v>448.2340696092722</v>
+        <v>638.1169902094293</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>638.1169902094293</v>
+        <v>155.8047665067719</v>
       </c>
       <c r="C42" t="n">
-        <v>638.1169902094293</v>
+        <v>155.8047665067719</v>
       </c>
       <c r="D42" t="n">
-        <v>489.1825805481781</v>
+        <v>155.8047665067719</v>
       </c>
       <c r="E42" t="n">
-        <v>329.9451255427226</v>
+        <v>155.8047665067719</v>
       </c>
       <c r="F42" t="n">
-        <v>183.4105675696075</v>
+        <v>155.8047665067719</v>
       </c>
       <c r="G42" t="n">
-        <v>44.67974215222304</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H42" t="n">
         <v>17.07394108938743</v>
@@ -7491,22 +7491,22 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4315011472248</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>353.7215221283943</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="M42" t="n">
-        <v>353.7215221283943</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7635558748512</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0535768560208</v>
+        <v>650.9440040328959</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7521,19 +7521,19 @@
         <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V42" t="n">
-        <v>638.1169902094293</v>
+        <v>422.536925949487</v>
       </c>
       <c r="W42" t="n">
-        <v>638.1169902094293</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="X42" t="n">
-        <v>638.1169902094293</v>
+        <v>155.8047665067719</v>
       </c>
       <c r="Y42" t="n">
-        <v>638.1169902094293</v>
+        <v>155.8047665067719</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L43" t="n">
-        <v>746.4788889868139</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M43" t="n">
-        <v>785.6669271790361</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N43" t="n">
-        <v>829.3577778344724</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>157.8169888482831</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10437,7 +10437,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>173.111405903722</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9786433972171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>238.4548774837949</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>268.6799548114478</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>394.5240408470375</v>
+        <v>404.5147400615823</v>
       </c>
       <c r="G17" t="n">
         <v>387.7127122548189</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23823,16 +23823,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,22 +23859,22 @@
         <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>175.8634344455351</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>209.2458842263967</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23908,10 +23908,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -23935,7 +23935,7 @@
         <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>154.8446320166601</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,13 +23969,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24026,13 +24026,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>27.72565000721957</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24096,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>59.02731545523469</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,19 +24248,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>62.55403989992469</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,16 +24333,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>52.49913203017204</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,13 +24415,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,25 +24485,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>48.28034918004796</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,16 +24576,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>33.06340297053637</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,10 +24734,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87.84422914287157</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>17.71439103196465</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,10 +24819,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24926,19 +24926,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,28 +24959,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,19 +24999,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>133.0718089982698</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>56.86390315940167</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,16 +25281,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,19 +25445,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,13 +25527,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>126.3548929804363</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>178.6482395811398</v>
       </c>
       <c r="E41" t="n">
         <v>168.5061064549189</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>139.7681670759793</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25710,19 +25710,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>84.90570118428921</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,16 +25761,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V42" t="n">
         <v>19.37632353208235</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>155.1324109725325</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351669.2246312145</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="C2" t="n">
         <v>48378.33248915088</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>48378.33248915087</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
         <v>48378.33248915088</v>
@@ -26326,31 +26326,31 @@
         <v>48378.33248915088</v>
       </c>
       <c r="G2" t="n">
-        <v>51885.6233062447</v>
+        <v>51885.62330624469</v>
       </c>
       <c r="H2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="I2" t="n">
-        <v>74772.30263909962</v>
+        <v>74772.30263909957</v>
       </c>
       <c r="J2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909959</v>
+        <v>74772.30263909958</v>
       </c>
       <c r="L2" t="n">
-        <v>74772.30263909959</v>
+        <v>74772.30263909958</v>
       </c>
       <c r="M2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="O2" t="n">
-        <v>71833.19353176962</v>
+        <v>71833.1935317696</v>
       </c>
       <c r="P2" t="n">
         <v>48378.33248915088</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="G4" t="n">
         <v>2278.927672807631</v>
@@ -26436,10 +26436,10 @@
         <v>3448.117877250231</v>
       </c>
       <c r="I4" t="n">
+        <v>3448.117877250231</v>
+      </c>
+      <c r="J4" t="n">
         <v>3448.11787725023</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3448.117877250231</v>
       </c>
       <c r="K4" t="n">
         <v>3448.11787725023</v>
@@ -26448,16 +26448,16 @@
         <v>3448.117877250231</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="N4" t="n">
         <v>3448.117877250231</v>
       </c>
       <c r="O4" t="n">
-        <v>3297.970381927695</v>
+        <v>3297.970381927694</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
     </row>
     <row r="5">
@@ -26534,31 +26534,31 @@
         <v>46278.57847486482</v>
       </c>
       <c r="G6" t="n">
-        <v>40367.2100241361</v>
+        <v>40367.21002413609</v>
       </c>
       <c r="H6" t="n">
         <v>-913.271144244005</v>
       </c>
       <c r="I6" t="n">
-        <v>56670.51599808772</v>
+        <v>56670.51599808766</v>
       </c>
       <c r="J6" t="n">
         <v>56670.51599808768</v>
       </c>
       <c r="K6" t="n">
-        <v>56670.51599808769</v>
+        <v>56670.51599808768</v>
       </c>
       <c r="L6" t="n">
-        <v>56670.51599808769</v>
+        <v>56670.51599808768</v>
       </c>
       <c r="M6" t="n">
         <v>56670.51599808768</v>
       </c>
       <c r="N6" t="n">
-        <v>56670.51599808768</v>
+        <v>56670.51599808769</v>
       </c>
       <c r="O6" t="n">
-        <v>55559.02792190748</v>
+        <v>55559.02792190747</v>
       </c>
       <c r="P6" t="n">
         <v>46278.57847486482</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M18" t="n">
+      <c r="Q18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N18" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37157,7 +37157,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>34.55702612384782</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>107.1131654004615</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>134.7055473971176</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_9.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298487.0049003611</v>
+        <v>320074.8015362157</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776014</v>
+        <v>2995243.613506387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.1449482</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4789054.529283857</v>
+        <v>4812058.02286789</v>
       </c>
     </row>
     <row r="11">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>23.55470292302859</v>
-      </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="19">
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>27.59002526031614</v>
@@ -2050,7 +2050,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
     </row>
     <row r="20">
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>84.50979422927689</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>174.7568433692306</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,64 +2327,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.84259295149039</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,20 +2552,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>109.364731275353</v>
+        <v>42.98938177812885</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>89.29749682216323</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>71.68224181945043</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>179.7283339446664</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>127.4349885571792</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>80.47961400380896</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>148.5012945739651</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,67 +3430,67 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.2946864288972</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>29.79900896488263</v>
+        <v>38.41511849755054</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,64 +3737,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>177.9933921796109</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="D41" t="n">
-        <v>176.0348020395431</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="F41" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>213.4242636173429</v>
+        <v>53.49760571002168</v>
       </c>
       <c r="X42" t="n">
-        <v>50.64057423094498</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>70.01461603622408</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>42.14590365206637</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
@@ -5519,16 +5519,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5537,28 +5537,28 @@
         <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>100.2684856730375</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S17" t="n">
-        <v>100.2684856730375</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T17" t="n">
-        <v>100.2684856730375</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.2684856730375</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.69875944192644</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="C18" t="n">
-        <v>58.69875944192644</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="D18" t="n">
-        <v>58.69875944192644</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="E18" t="n">
-        <v>58.69875944192644</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="F18" t="n">
-        <v>58.69875944192644</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G18" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H18" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I18" t="n">
         <v>2.961334673611005</v>
@@ -5595,16 +5595,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N18" t="n">
-        <v>55.73185102583861</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O18" t="n">
         <v>55.73185102583861</v>
@@ -5616,16 +5616,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>82.49138865710684</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="S18" t="n">
-        <v>82.49138865710684</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="T18" t="n">
-        <v>82.49138865710684</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="U18" t="n">
-        <v>82.49138865710684</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="V18" t="n">
         <v>58.69875944192644</v>
@@ -5634,10 +5634,10 @@
         <v>58.69875944192644</v>
       </c>
       <c r="X18" t="n">
-        <v>58.69875944192644</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="Y18" t="n">
-        <v>58.69875944192644</v>
+        <v>2.961334673611005</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
         <v>2.207202020825291</v>
@@ -5689,34 +5689,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.62014129470579</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R19" t="n">
-        <v>52.75142891054807</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S19" t="n">
-        <v>52.75142891054807</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="T19" t="n">
-        <v>52.75142891054807</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="U19" t="n">
-        <v>52.75142891054807</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="V19" t="n">
-        <v>30.07591440498301</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="W19" t="n">
-        <v>30.07591440498301</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="X19" t="n">
-        <v>30.07591440498301</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>344.6327430815143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C21" t="n">
-        <v>344.6327430815143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D21" t="n">
-        <v>195.6983334202631</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E21" t="n">
-        <v>195.6983334202631</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F21" t="n">
-        <v>195.6983334202631</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>195.6983334202631</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5838,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>512.948217504867</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>512.948217504867</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="Y21" t="n">
-        <v>512.8480801015824</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5941,19 +5941,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W23" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F24" t="n">
-        <v>298.4948343740486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>159.7640089566641</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>46.39487336424342</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
         <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,13 +6245,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
         <v>749.627473042513</v>
@@ -6269,7 +6269,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>619.4388494194218</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C27" t="n">
-        <v>619.4388494194218</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="D27" t="n">
-        <v>619.4388494194218</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="E27" t="n">
         <v>508.9694238887622</v>
@@ -6309,46 +6309,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6403,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>344.5415416409353</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="C30" t="n">
-        <v>344.5415416409353</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="D30" t="n">
-        <v>344.5415416409353</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="E30" t="n">
-        <v>344.5415416409353</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>344.5415416409353</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>205.8107162235509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>92.44158063113018</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6576,16 +6576,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.7568786610034</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="31">
@@ -6652,10 +6652,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>633.9146807345644</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>480.3983474178279</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38115216564972</v>
+        <v>305.9453181367008</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>305.9453181367008</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>146.7078631312453</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>480.3983474178279</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>304.9965798960495</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C36" t="n">
-        <v>304.9965798960495</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D36" t="n">
-        <v>304.9965798960495</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E36" t="n">
-        <v>304.9965798960495</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F36" t="n">
-        <v>304.9965798960495</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>167.2328274651121</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X38" t="n">
-        <v>467.067986854209</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>56.03466981216806</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>224.2500068322361</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>638.1169902094293</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="C41" t="n">
-        <v>638.1169902094293</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D41" t="n">
-        <v>460.3040588563555</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
-        <v>244.7239945964131</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J41" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0889470003098</v>
+        <v>17.62165426160527</v>
       </c>
       <c r="L41" t="n">
-        <v>300.1647985849684</v>
+        <v>197.6975058462639</v>
       </c>
       <c r="M41" t="n">
-        <v>511.4548195661379</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N41" t="n">
-        <v>717.3093417733771</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O41" t="n">
         <v>764.0369991773207</v>
@@ -7430,31 +7430,31 @@
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>853.6970544693717</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="V41" t="n">
-        <v>853.6970544693717</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="W41" t="n">
-        <v>853.6970544693717</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="X41" t="n">
-        <v>853.6970544693717</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="Y41" t="n">
-        <v>638.1169902094293</v>
+        <v>412.4453105812599</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.8047665067719</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="C42" t="n">
-        <v>155.8047665067719</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="D42" t="n">
-        <v>155.8047665067719</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="E42" t="n">
-        <v>155.8047665067719</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="F42" t="n">
-        <v>155.8047665067719</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>17.07394108938743</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>228.3639620705569</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>439.6539830517264</v>
+        <v>776.3015640907333</v>
       </c>
       <c r="O42" t="n">
-        <v>650.9440040328959</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P42" t="n">
         <v>784.3024959560423</v>
@@ -7518,22 +7518,22 @@
         <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>853.6970544693717</v>
+        <v>651.5104598281378</v>
       </c>
       <c r="U42" t="n">
-        <v>638.1169902094293</v>
+        <v>651.5104598281378</v>
       </c>
       <c r="V42" t="n">
-        <v>422.536925949487</v>
+        <v>651.5104598281378</v>
       </c>
       <c r="W42" t="n">
-        <v>206.9568616895446</v>
+        <v>597.4724742624593</v>
       </c>
       <c r="X42" t="n">
-        <v>155.8047665067719</v>
+        <v>597.4724742624593</v>
       </c>
       <c r="Y42" t="n">
-        <v>155.8047665067719</v>
+        <v>389.7121754975054</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7597,7 @@
         <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
         <v>17.07394108938743</v>
@@ -8459,16 +8459,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8705,7 +8705,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9018,13 +9018,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9167,10 +9167,10 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
@@ -9179,7 +9179,7 @@
         <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9252,10 +9252,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P18" t="n">
         <v>161.5644326746464</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,7 +9957,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10434,13 +10434,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>309.6353666274674</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>211.409123942969</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>164.3368825942667</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.6430966734834</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>277.2978653650641</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
         <v>355.5582975393612</v>
@@ -11151,10 +11151,10 @@
         <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>356.0205080617874</v>
+        <v>150.6779938033424</v>
       </c>
       <c r="P42" t="n">
-        <v>268.6799548114478</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23027,7 +23027,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,10 +23036,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23069,7 +23069,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>186.4537171020145</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>209.8495256553324</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23349,16 +23349,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>115.5237560052377</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,7 +23388,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>404.5147400615823</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>135.558522906408</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>76.60313122961455</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23868,16 +23868,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>209.2458842263967</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="19">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>58.57201799137825</v>
@@ -23938,7 +23938,7 @@
         <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>198.8573347266919</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>272.3182247614621</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,7 +24014,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24051,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>27.72565000721957</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>25.40788532559105</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,22 +24257,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>41.0774204722821</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>62.55403989992469</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,7 +24528,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>48.28034918004796</v>
+        <v>114.6556986772721</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2218967649542</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,16 +24683,16 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,7 +24734,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>68.34758363323772</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>17.71439103196465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24892,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>185.5445578263411</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,10 +24929,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24996,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>17.63422383620468</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,13 +25160,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>180.0120675192578</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>56.86390315940167</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>84.29929257546016</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25397,10 +25397,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>159.5219355582018</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y38" t="n">
-        <v>183.9432522271564</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>142.9094900234331</v>
+        <v>134.2933804907652</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25521,19 +25521,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25603,13 +25603,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>204.7404494838697</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>151.8486281536646</v>
       </c>
       <c r="D41" t="n">
-        <v>178.6482395811398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>193.4517821243685</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,7 +25682,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>37.92138929049358</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>38.27071954357669</v>
+        <v>198.1973774508979</v>
       </c>
       <c r="X42" t="n">
-        <v>155.1324109725325</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,10 +25837,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351669.2246312143</v>
+        <v>351669.2246312142</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205641</v>
+        <v>488291.61581059</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506790.0512205641</v>
+        <v>488291.6158105897</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506790.0512205641</v>
+        <v>488291.6158105897</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>486869.4228264389</v>
+        <v>486869.422826439</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>48378.33248915087</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="E2" t="n">
-        <v>48378.33248915088</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="F2" t="n">
-        <v>48378.33248915088</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="G2" t="n">
-        <v>51885.62330624469</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="H2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="I2" t="n">
-        <v>74772.30263909957</v>
+        <v>74772.30263909958</v>
       </c>
       <c r="J2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
-        <v>74772.30263909958</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="M2" t="n">
-        <v>74772.30263909958</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909959</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="O2" t="n">
         <v>71833.1935317696</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286063</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286063</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286063</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="G4" t="n">
-        <v>2278.927672807631</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.11787725023</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>160.9678794298453</v>
       </c>
       <c r="O4" t="n">
-        <v>3297.970381927694</v>
+        <v>159.5405981880675</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12650.97847486482</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>12650.97847486482</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>12650.97847486482</v>
+        <v>8478.555432738947</v>
       </c>
       <c r="E6" t="n">
-        <v>46278.57847486482</v>
+        <v>50064.58648652713</v>
       </c>
       <c r="F6" t="n">
-        <v>46278.57847486482</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="G6" t="n">
-        <v>40367.21002413609</v>
+        <v>49644.4185221752</v>
       </c>
       <c r="H6" t="n">
-        <v>-913.271144244005</v>
+        <v>2355.314235302259</v>
       </c>
       <c r="I6" t="n">
-        <v>56670.51599808766</v>
+        <v>59939.10137763394</v>
       </c>
       <c r="J6" t="n">
-        <v>56670.51599808768</v>
+        <v>59939.10137763394</v>
       </c>
       <c r="K6" t="n">
-        <v>56670.51599808768</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="L6" t="n">
-        <v>56670.51599808768</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="M6" t="n">
-        <v>56670.51599808768</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="N6" t="n">
-        <v>56670.51599808769</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="O6" t="n">
-        <v>55559.02792190747</v>
+        <v>58697.4577056471</v>
       </c>
       <c r="P6" t="n">
-        <v>46278.57847486482</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>27.59002526031614</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36206,13 +36206,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="N33" t="n">
-        <v>217.7067518141195</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>80.06741185963574</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>22.2028486722484</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0.5532456285028686</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>47.19965394337734</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
         <v>213.4242636173429</v>
@@ -37871,10 +37871,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>213.4242636173429</v>
+        <v>8.081749358897964</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7055473971176</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201732.1177101069</v>
+        <v>304239.2234927445</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>2755553.591652928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>20120750.05383734</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5201920.383830385</v>
+        <v>4890972.686918096</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V4" t="n">
-        <v>0.790450447682262</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C5" t="n">
-        <v>28.88091821707973</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="D5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="7">
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>22.56635248423081</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.790450447682262</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1335,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>44.13217237922859</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="W10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>16.93162886246722</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.87161743162455</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S14" t="n">
-        <v>28.88091821707974</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U15" t="n">
-        <v>38.87161743162455</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1891,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
     </row>
     <row r="18">
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>67.92775320576774</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>110.0727852109611</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>70.34400780127524</v>
-      </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>40.61938961819902</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>147.2580314867804</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.70522705619494</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>196.3545425011687</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>216.508449911684</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>98.59828786187717</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>96.66381719626267</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>156.1110501651536</v>
       </c>
       <c r="W39" t="n">
-        <v>97.01986919358308</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="H41" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>37.65335229255727</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>95.07569521714736</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>102.9664640366239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>29.78216610882018</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>185.9894214815036</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.8368965183755</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="X45" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5286895169144</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>92.68647758675968</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>48.10852568854899</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>3.530573790338288</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>3.530573790338288</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W2" t="n">
-        <v>3.530573790338288</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N3" t="n">
-        <v>134.6031257566472</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O3" t="n">
-        <v>134.6031257566472</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T3" t="n">
-        <v>87.37278572049297</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U3" t="n">
-        <v>48.10852568854899</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V3" t="n">
-        <v>48.10852568854899</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.48491238239833</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="R4" t="n">
-        <v>93.48491238239833</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S4" t="n">
-        <v>93.48491238239833</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T4" t="n">
-        <v>93.48491238239833</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U4" t="n">
-        <v>48.90696048418764</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V4" t="n">
-        <v>48.10852568854899</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.28117035226589</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="C5" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M5" t="n">
-        <v>45.45613755060546</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U5" t="n">
-        <v>77.28117035226589</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V5" t="n">
-        <v>77.28117035226589</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W5" t="n">
-        <v>77.28117035226589</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X5" t="n">
-        <v>77.28117035226589</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y5" t="n">
-        <v>77.28117035226589</v>
+        <v>40.631385380739</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.284706443124001</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C6" t="n">
-        <v>4.284706443124001</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D6" t="n">
-        <v>4.284706443124001</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E6" t="n">
-        <v>4.284706443124001</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F6" t="n">
-        <v>4.284706443124001</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G6" t="n">
-        <v>4.284706443124001</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H6" t="n">
-        <v>4.284706443124001</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M6" t="n">
-        <v>3.530573790338288</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N6" t="n">
-        <v>47.22142444577459</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T6" t="n">
-        <v>42.79483382228227</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U6" t="n">
-        <v>4.284706443124001</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V6" t="n">
-        <v>4.284706443124001</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W6" t="n">
-        <v>4.284706443124001</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X6" t="n">
-        <v>4.284706443124001</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.284706443124001</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>93.48491238239833</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S7" t="n">
-        <v>48.90696048418764</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T7" t="n">
-        <v>4.329008585976936</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T8" t="n">
-        <v>77.28117035226589</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U8" t="n">
-        <v>77.28117035226589</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="V8" t="n">
-        <v>32.70321845405519</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W8" t="n">
-        <v>32.70321845405519</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>45.45613755060546</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U9" t="n">
-        <v>92.68647758675968</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V9" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W9" t="n">
-        <v>48.10852568854899</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S10" t="n">
-        <v>93.48491238239833</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T10" t="n">
-        <v>93.48491238239833</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U10" t="n">
-        <v>93.48491238239833</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V10" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.17851493563234</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C11" t="n">
-        <v>60.17851493563234</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D11" t="n">
-        <v>60.17851493563234</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E11" t="n">
-        <v>60.17851493563234</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F11" t="n">
-        <v>15.60056303742164</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G11" t="n">
-        <v>15.60056303742164</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H11" t="n">
-        <v>15.60056303742164</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6031257566472</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W11" t="n">
-        <v>149.3344187320537</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X11" t="n">
-        <v>149.3344187320537</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y11" t="n">
-        <v>104.756466833843</v>
+        <v>72.39977328887976</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.10852568854899</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C12" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D12" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E12" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F12" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G12" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N12" t="n">
-        <v>90.91227510121089</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O12" t="n">
-        <v>90.91227510121089</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P12" t="n">
-        <v>134.6031257566472</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>137.2644294849704</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U12" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V12" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W12" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X12" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W13" t="n">
-        <v>93.48491238239833</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C14" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D14" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S14" t="n">
-        <v>137.2644294849704</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2644294849704</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U14" t="n">
-        <v>137.2644294849704</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V14" t="n">
-        <v>137.2644294849704</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W14" t="n">
-        <v>137.2644294849704</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X14" t="n">
-        <v>137.2644294849704</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45613755060546</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U15" t="n">
-        <v>137.2644294849704</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V15" t="n">
-        <v>92.68647758675968</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W15" t="n">
-        <v>48.10852568854899</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V16" t="n">
-        <v>93.48491238239833</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W16" t="n">
-        <v>48.90696048418764</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X16" t="n">
-        <v>4.329008585976936</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>933.9571464551993</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K20" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L20" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X21" t="n">
-        <v>90.64333416851576</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>132.6502787026334</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6502787026334</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
         <v>725.4530095217538</v>
@@ -6104,16 +6104,16 @@
         <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>376.0990553467335</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>132.6502787026334</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X24" t="n">
-        <v>132.6502787026334</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y24" t="n">
-        <v>132.6502787026334</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="25">
@@ -6180,10 +6180,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="W27" t="n">
-        <v>327.2640844659515</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="X27" t="n">
-        <v>178.5185981156682</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.5185981156682</v>
+        <v>648.4405950311615</v>
       </c>
     </row>
     <row r="28">
@@ -6423,7 +6423,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6660,7 +6660,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>559.1338160830064</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="C32" t="n">
-        <v>315.6850394389064</v>
+        <v>126.8553991433493</v>
       </c>
       <c r="D32" t="n">
-        <v>315.6850394389064</v>
+        <v>126.8553991433493</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>126.8553991433493</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.2395214933305</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>804.7952718325922</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>593.6638884121423</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>368.3145454180702</v>
       </c>
       <c r="Y32" t="n">
-        <v>802.5825927271064</v>
+        <v>368.3145454180702</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>611.0983395749985</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>847.7524488388525</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>681.5913452514495</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>681.5913452514495</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>453.3677269878386</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>218.2156187560959</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="X33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>114.4172127583938</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>294.4930643430524</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>511.4686916059566</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>717.3232138131959</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>720.7372608855958</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>720.7372608855958</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>479.2781146108748</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>237.8189683361539</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>237.8189683361539</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>686.7933527807127</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>686.7933527807127</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>537.8589431194614</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>378.6214881140059</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>232.0869301408909</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>132.4926999773786</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>773.5347416345442</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="V36" t="n">
-        <v>399.5118995681682</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="W36" t="n">
-        <v>156.0631229240681</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="X36" t="n">
-        <v>20.03527576299844</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>855.0086898007806</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>116.7637837751222</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>116.7637837751222</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>874.2395214933305</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q38" t="n">
-        <v>960.7588564629629</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>794.7036564643652</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>583.5722730439153</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.2229300498432</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>467.4860738573607</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>467.4860738573607</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>704.1401831212147</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>886.7836607345656</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>626.7850715371696</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>469.0971420774185</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>227.6379958026975</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>227.6379958026975</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.87769703774361</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="C41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="D41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="E41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="F41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="G41" t="n">
-        <v>122.6530896684844</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>517.86667737393</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>723.7211995811692</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>800.3495754801942</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>728.5350679887154</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>517.4036845682655</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>479.3699953838642</v>
       </c>
       <c r="U41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="V41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="W41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="X41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="Y41" t="n">
-        <v>366.1018663125844</v>
+        <v>254.6200886231962</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>194.4883050441255</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>583.7125199055437</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>803.9899035216744</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>564.0901945644629</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>339.3402878037949</v>
       </c>
       <c r="W42" t="n">
-        <v>298.4948343740486</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="X42" t="n">
-        <v>298.4948343740486</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="Y42" t="n">
-        <v>194.4883050441255</v>
+        <v>114.5903810431269</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.0360370837871</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="C44" t="n">
-        <v>274.0360370837871</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="D44" t="n">
-        <v>274.0360370837871</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="E44" t="n">
-        <v>274.0360370837871</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="F44" t="n">
-        <v>274.0360370837871</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="G44" t="n">
-        <v>243.9530410142718</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H44" t="n">
-        <v>243.9530410142718</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>517.86667737393</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>723.7211995811692</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>872.9161497238173</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="T44" t="n">
-        <v>517.4848137278872</v>
+        <v>655.1681086433501</v>
       </c>
       <c r="U44" t="n">
-        <v>517.4848137278872</v>
+        <v>655.1681086433501</v>
       </c>
       <c r="V44" t="n">
-        <v>517.4848137278872</v>
+        <v>655.1681086433501</v>
       </c>
       <c r="W44" t="n">
-        <v>274.0360370837871</v>
+        <v>430.4182018826822</v>
       </c>
       <c r="X44" t="n">
-        <v>274.0360370837871</v>
+        <v>430.4182018826822</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.0360370837871</v>
+        <v>242.5500993761129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>215.7599104902413</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>215.7599104902413</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>215.7599104902413</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>215.7599104902413</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>215.7599104902413</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>238.0775762315756</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>458.3549598477063</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>678.6323434638369</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>861.2758210771879</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>665.2597240115772</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>440.5098172509092</v>
       </c>
       <c r="W45" t="n">
-        <v>156.0631229240681</v>
+        <v>215.7599104902413</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>215.7599104902413</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>215.7599104902413</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P3" t="n">
-        <v>176.3234617176304</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>180.1904932776592</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8786,10 +8786,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>182.3308283893217</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8856,10 +8856,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9093,10 +9093,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9488,19 +9488,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>349.0484638974528</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>313.9993571235165</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>381.1785887339921</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>252.1172246555984</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>316.3460615231987</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>306.2112077195392</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>313.9993571235165</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>236.1156940697115</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>307.5006113196918</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>353.8441197763946</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>229.4848578288594</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>248.499138228429</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>353.8441197763946</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>365.0986521375057</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>169.0058242830491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>363.6715861718228</v>
       </c>
     </row>
     <row r="3">
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22749,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>63.59569076746356</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>242.1868569772623</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V4" t="n">
-        <v>251.3471928761457</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W4" t="n">
-        <v>242.3908259573624</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C5" t="n">
-        <v>336.3919735539278</v>
+        <v>352.6972385013215</v>
       </c>
       <c r="D5" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22837,10 +22837,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>183.1163432930735</v>
       </c>
     </row>
     <row r="7">
@@ -22989,22 +22989,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>154.7270388929387</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>285.5285789088086</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V8" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>340.8501824613893</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>371.9273436213119</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>188.6684147701967</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23223,28 +23223,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>208.0054709445994</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W10" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>224.9192049413549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.601669284252</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>367.6197750375201</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>332.3093398549458</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23354,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>61.28621672101858</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23475,16 +23475,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W13" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.1358939915854</v>
       </c>
     </row>
     <row r="14">
@@ -23503,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>392.5654507069698</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S14" t="n">
-        <v>180.1391513691656</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.105766276825</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="15">
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U15" t="n">
-        <v>187.0697646493503</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7980617381184</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23712,16 +23712,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.7942029044125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="18">
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>135.0341266295844</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,22 +24174,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24293,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>89.7173272496332</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24344,10 +24344,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>122.7278019384641</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24420,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>181.0016451065613</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,16 +24524,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>185.3219924627758</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>58.51495371669705</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>61.00025583355162</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>126.2283369590338</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>312.1708186855165</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>55.3404406597509</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>70.26853576158751</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>122.9663522040831</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,16 +25207,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>88.70770365816117</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>110.1964139054393</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>38.74522930133347</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25371,13 +25371,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>176.2581827031613</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>113.8120723741432</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>76.68953698427163</v>
       </c>
       <c r="W39" t="n">
-        <v>154.6751139673365</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>192.8003298220738</v>
       </c>
       <c r="H41" t="n">
-        <v>237.1365750230782</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>185.4424972715741</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>28.84324521477521</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>42.26782194606328</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>3.438974387913532</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>10.29817945636398</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>29.19257546785832</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>102.7162317406805</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25842,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>385.5205714063148</v>
+        <v>192.8003298220738</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.5934418710700697</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>126.7385610243517</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>200.24851717455</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>31.50662064483518</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>3.438974387913532</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>10.29817945636398</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>29.19257546785832</v>
       </c>
       <c r="X45" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364636.6663211566</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>364636.6663211566</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364636.6663211565</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364636.6663211565</v>
+        <v>351669.2246312145</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211565</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211567</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506790.0512205639</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53798.85240803943</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="C2" t="n">
-        <v>53798.85240803943</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="D2" t="n">
-        <v>53798.85240803944</v>
+        <v>51885.62330624471</v>
       </c>
       <c r="E2" t="n">
-        <v>53798.85240803943</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="F2" t="n">
-        <v>53798.85240803943</v>
+        <v>51885.62330624471</v>
       </c>
       <c r="G2" t="n">
+        <v>53798.85240803946</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53798.85240803942</v>
+      </c>
+      <c r="I2" t="n">
         <v>74772.30263909959</v>
       </c>
-      <c r="H2" t="n">
-        <v>74772.30263909958</v>
-      </c>
-      <c r="I2" t="n">
-        <v>74772.30263909958</v>
-      </c>
       <c r="J2" t="n">
+        <v>74772.30263909957</v>
+      </c>
+      <c r="K2" t="n">
         <v>74772.30263909959</v>
       </c>
-      <c r="K2" t="n">
-        <v>74772.30263909958</v>
-      </c>
       <c r="L2" t="n">
-        <v>74772.30263909958</v>
+        <v>74562.4708873396</v>
       </c>
       <c r="M2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.47088733959</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909961</v>
+        <v>74562.47088733964</v>
       </c>
       <c r="O2" t="n">
-        <v>74772.30263909958</v>
+        <v>72800.26970074199</v>
       </c>
       <c r="P2" t="n">
-        <v>74772.30263909959</v>
+        <v>72800.26970074199</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>611.8584928238274</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>4533.95439308712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52355.08930137913</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>6703.395469327987</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>22.21667432804714</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.21667432804714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="G4" t="n">
         <v>36.87052286425572</v>
       </c>
-      <c r="C4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
         <v>36.87052286425572</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="G4" t="n">
-        <v>179.5324977039669</v>
-      </c>
-      <c r="H4" t="n">
-        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
         <v>179.5324977039669</v>
@@ -26447,19 +26447,19 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="G5" t="n">
         <v>2683.236080657098</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2683.236080657098</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14653.66876376167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14653.66876376167</v>
       </c>
       <c r="I5" t="n">
         <v>14653.66876376167</v>
@@ -26499,19 +26499,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11886.9541787733</v>
+        <v>6372.26118102025</v>
       </c>
       <c r="C6" t="n">
-        <v>2902.75182547093</v>
+        <v>14958.21002703851</v>
       </c>
       <c r="D6" t="n">
-        <v>2902.751825470936</v>
+        <v>14468.73709170898</v>
       </c>
       <c r="E6" t="n">
-        <v>36530.35182547092</v>
+        <v>48708.19558453279</v>
       </c>
       <c r="F6" t="n">
-        <v>36530.35182547093</v>
+        <v>48708.1955845328</v>
       </c>
       <c r="G6" t="n">
-        <v>-6241.344142878826</v>
+        <v>45089.95201352626</v>
       </c>
       <c r="H6" t="n">
-        <v>47721.09075759347</v>
+        <v>49623.90640661334</v>
       </c>
       <c r="I6" t="n">
-        <v>47721.09075759347</v>
+        <v>6362.211014250783</v>
       </c>
       <c r="J6" t="n">
-        <v>36174.17264760261</v>
+        <v>52013.9048463019</v>
       </c>
       <c r="K6" t="n">
-        <v>47721.09075759348</v>
+        <v>58717.30031562991</v>
       </c>
       <c r="L6" t="n">
-        <v>47721.09075759347</v>
+        <v>58626.32421239691</v>
       </c>
       <c r="M6" t="n">
-        <v>47721.09075759349</v>
+        <v>58626.3242123969</v>
       </c>
       <c r="N6" t="n">
-        <v>47721.0907575935</v>
+        <v>58626.32421239695</v>
       </c>
       <c r="O6" t="n">
-        <v>341.2125401296871</v>
+        <v>57862.29209750258</v>
       </c>
       <c r="P6" t="n">
-        <v>47721.09075759348</v>
+        <v>57862.29209750258</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26819,19 +26819,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>16.54214711891245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>196.8821164984305</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P3" t="n">
-        <v>42.34905430330016</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330018</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35339,10 +35339,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.34905430330016</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,10 +35576,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>217.7067518141195</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37086,7 +37086,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>82.76636136824696</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>96.25621047821812</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>164.0771737975209</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>82.76636136824696</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>93.98166014769316</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>77.402399898005</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>86.88861338441494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>17.26614247315946</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>29.02405019702757</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
